--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
   <si>
     <t>CR12MOV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,17 +100,27 @@
     <t>材料</t>
   </si>
   <si>
-    <t>密度</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>密度</t>
+    <t>42ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42ff</t>
+    <t>密度(g/cm³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(g/cm³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(g/cm³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价(元/kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价(元/kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,13 +491,18 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -510,28 +525,31 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
       <c r="C3" s="1">
         <v>25</v>
       </c>
@@ -556,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="26">
   <si>
     <t>CR12MOV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,27 +100,17 @@
     <t>材料</t>
   </si>
   <si>
-    <t>42ff</t>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>密度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密度(g/cm³)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密度(g/cm³)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密度(g/cm³)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价(元/kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价(元/kg)</t>
+    <t>42ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,18 +481,13 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,31 +510,28 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
       <c r="C3" s="1">
         <v>25</v>
       </c>
@@ -574,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>CR12MOV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,17 +100,27 @@
     <t>材料</t>
   </si>
   <si>
-    <t>密度</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>密度</t>
+    <t>密度(g/cm³)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42ff</t>
+    <t>密度(g/cm³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(g/cm³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价(元/kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价(元/kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价(元/kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,13 +491,17 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,25 +527,28 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
       <c r="C3" s="1">
         <v>25</v>
       </c>
@@ -555,8 +572,8 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="C4" s="1">
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
